--- a/InputData/indst/TNRbI/Total Nonfuel Revenue by Industry.xlsx
+++ b/InputData/indst/TNRbI/Total Nonfuel Revenue by Industry.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\TNRbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\indst\TNRbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_7FB4C0C5DF9FFDFBB19FFBEEFDC0CC3537F7C267" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77E5A1ED-7C1C-4DEB-AF6B-1334DA7264C7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="25875" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA 24" sheetId="4" r:id="rId2"/>
-    <sheet name="TNRbI" sheetId="3" r:id="rId3"/>
+    <sheet name="hk gdp contribution" sheetId="5" r:id="rId3"/>
+    <sheet name="HK GDP" sheetId="6" r:id="rId4"/>
+    <sheet name="calcualtion" sheetId="7" r:id="rId5"/>
+    <sheet name="TNRbI" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="currency_conv">About!$A$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
   <si>
     <t>Source:</t>
   </si>
@@ -489,15 +501,142 @@
   <si>
     <t>Nonfuel Revenue ($)</t>
   </si>
+  <si>
+    <t>Economic Activity</t>
+  </si>
+  <si>
+    <t>2017 r</t>
+  </si>
+  <si>
+    <t>Agriculture, fishing, mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, gas and water supply, and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Import/export, wholesale and retail trades</t>
+  </si>
+  <si>
+    <t>Import and export trade</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trades</t>
+  </si>
+  <si>
+    <t>Accommodation and food services ^</t>
+  </si>
+  <si>
+    <t>Transportation, storage, postal and courier services</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Information and communications</t>
+  </si>
+  <si>
+    <t>Financing and insurance</t>
+  </si>
+  <si>
+    <t>Real estate, professional and business services</t>
+  </si>
+  <si>
+    <t>Real estate</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Public administration, social and personal services</t>
+  </si>
+  <si>
+    <t>Ownership of premises</t>
+  </si>
+  <si>
+    <t>GDP at basic prices</t>
+  </si>
+  <si>
+    <t>https://www.censtatd.gov.hk/hkstat/sub/sp250.jsp?tableID=036&amp;ID=0&amp;productType=8</t>
+  </si>
+  <si>
+    <t>Source: Census and Statistical department</t>
+  </si>
+  <si>
+    <t>GDP in 2016 HK$</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Year-on-year change</t>
+  </si>
+  <si>
+    <t>GDP per capita HK$</t>
+  </si>
+  <si>
+    <t>HK$ million</t>
+  </si>
+  <si>
+    <t>2016^1</t>
+  </si>
+  <si>
+    <t>sourceL PCM</t>
+  </si>
+  <si>
+    <t>2016 HK$ million</t>
+  </si>
+  <si>
+    <t>percentage of agriculture</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>percentage of industry</t>
+  </si>
+  <si>
+    <t>https://www.exchange-rates.org/Rate/USD/HKD/12-30-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 US Dollar = </t>
+  </si>
+  <si>
+    <t>Hong Kong Dollars on 12/30/2016</t>
+  </si>
+  <si>
+    <t>2016 million USD</t>
+  </si>
+  <si>
+    <t>2012 value million USD</t>
+  </si>
+  <si>
+    <t>1.00 US Dollars of 2016 are worth 0.95 US Dollars of 2012.</t>
+  </si>
+  <si>
+    <t>https://stats.areppim.com/calc/calc_usdlrxdeflator.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +703,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +743,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -629,8 +794,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -650,8 +904,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,17 +973,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="6"/>
+  <cellStyles count="10">
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="9" xr:uid="{F5CB43AB-4F61-4717-8D49-23A4B6880C13}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="4"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,6 +1137,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -854,6 +1189,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,22 +1381,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,197 +1406,197 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <f>1.07*10^9</f>
         <v>1070000000.0000001</v>
@@ -1257,24 +1611,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="20.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>107</v>
       </c>
@@ -1381,8 +1735,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>106</v>
       </c>
@@ -1393,7 +1747,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>104</v>
       </c>
@@ -1406,7 +1760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>101</v>
       </c>
@@ -1417,7 +1771,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>99</v>
       </c>
@@ -1428,7 +1782,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>97</v>
       </c>
@@ -1436,12 +1790,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>94</v>
       </c>
@@ -1661,8 +2015,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
@@ -1775,7 +2129,7 @@
         <v>1.8898000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>91</v>
       </c>
@@ -1888,17 +2242,17 @@
         <v>5.8120000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>87</v>
       </c>
@@ -2011,7 +2365,7 @@
         <v>1.1761000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -2124,7 +2478,7 @@
         <v>1.107E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>84</v>
       </c>
@@ -2237,12 +2591,12 @@
         <v>1.4662E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>82</v>
       </c>
@@ -2355,7 +2709,7 @@
         <v>1.7756000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2822,7 @@
         <v>6.1960000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -2581,7 +2935,7 @@
         <v>-1.7729999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>76</v>
       </c>
@@ -2694,7 +3048,7 @@
         <v>1.0227999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>74</v>
       </c>
@@ -2807,7 +3161,7 @@
         <v>1.4657999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2920,7 +3274,7 @@
         <v>9.9909999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -3033,7 +3387,7 @@
         <v>1.7110000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3500,7 @@
         <v>1.9053E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>66</v>
       </c>
@@ -3259,7 +3613,7 @@
         <v>1.5769999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>64</v>
       </c>
@@ -3372,7 +3726,7 @@
         <v>-2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>62</v>
       </c>
@@ -3485,7 +3839,7 @@
         <v>1.9487000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
@@ -3598,7 +3952,7 @@
         <v>1.8273000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>58</v>
       </c>
@@ -3711,7 +4065,7 @@
         <v>5.829E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>56</v>
       </c>
@@ -3824,7 +4178,7 @@
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>54</v>
       </c>
@@ -3937,7 +4291,7 @@
         <v>-2.575E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>52</v>
       </c>
@@ -4050,7 +4404,7 @@
         <v>-2.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>50</v>
       </c>
@@ -4163,7 +4517,7 @@
         <v>-4.176E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>48</v>
       </c>
@@ -4276,7 +4630,7 @@
         <v>2.3494999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
@@ -4389,7 +4743,7 @@
         <v>1.8002000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>44</v>
       </c>
@@ -4502,7 +4856,7 @@
         <v>1.2220999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>42</v>
       </c>
@@ -4615,7 +4969,7 @@
         <v>1.6796999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
@@ -4728,7 +5082,7 @@
         <v>1.9954E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>38</v>
       </c>
@@ -4841,7 +5195,7 @@
         <v>9.5680000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>36</v>
       </c>
@@ -4954,7 +5308,7 @@
         <v>-7.7800000000000005E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>34</v>
       </c>
@@ -5067,7 +5421,7 @@
         <v>8.8459999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>32</v>
       </c>
@@ -5180,7 +5534,7 @@
         <v>2.0156E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>30</v>
       </c>
@@ -5293,7 +5647,7 @@
         <v>1.8870000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>28</v>
       </c>
@@ -5406,7 +5760,7 @@
         <v>2.6143E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>26</v>
       </c>
@@ -5519,7 +5873,7 @@
         <v>2.5361000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>24</v>
       </c>
@@ -5632,7 +5986,7 @@
         <v>2.5756000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>22</v>
       </c>
@@ -5745,7 +6099,7 @@
         <v>2.6575999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>20</v>
       </c>
@@ -5858,7 +6212,7 @@
         <v>2.8815E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
@@ -5971,8 +6325,8 @@
         <v>1.7311E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="29" t="s">
         <v>16</v>
       </c>
@@ -6012,17 +6366,17 @@
       <c r="AJ62" s="29"/>
       <c r="AK62" s="29"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>13</v>
       </c>
@@ -6037,262 +6391,2791 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22BFD58-0F80-41A9-93C3-0DDC5091E86B}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="30">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="30">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="30">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="32">
+        <v>1.7</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="32">
+        <v>4</v>
+      </c>
+      <c r="E6" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="H6" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="33">
+        <v>92.9</v>
+      </c>
+      <c r="E7" s="33">
+        <v>92.7</v>
+      </c>
+      <c r="F7" s="33">
+        <v>92.7</v>
+      </c>
+      <c r="G7" s="33">
+        <v>92.2</v>
+      </c>
+      <c r="H7" s="33">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="32">
+        <v>25</v>
+      </c>
+      <c r="E8" s="32">
+        <v>24.1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>22.7</v>
+      </c>
+      <c r="G8" s="32">
+        <v>21.7</v>
+      </c>
+      <c r="H8" s="32">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="35">
+        <v>19.7</v>
+      </c>
+      <c r="E9" s="35">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F9" s="35">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G9" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="H9" s="35">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="35">
+        <v>5.3</v>
+      </c>
+      <c r="E10" s="35">
+        <v>5</v>
+      </c>
+      <c r="F10" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G10" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H10" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="F11" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="G11" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="H11" s="32">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="32">
+        <v>6</v>
+      </c>
+      <c r="E12" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="F12" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="G12" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="H12" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="E13" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="F13" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="H13" s="35">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="E15" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="E16" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="F16" s="32">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G16" s="32">
+        <v>17.7</v>
+      </c>
+      <c r="H16" s="32">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="32">
+        <v>10.8</v>
+      </c>
+      <c r="E17" s="32">
+        <v>10.9</v>
+      </c>
+      <c r="F17" s="32">
+        <v>10.9</v>
+      </c>
+      <c r="G17" s="32">
+        <v>11</v>
+      </c>
+      <c r="H17" s="32">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="35">
+        <v>5</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5</v>
+      </c>
+      <c r="F18" s="35">
+        <v>5</v>
+      </c>
+      <c r="G18" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H18" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="E19" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="F19" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="G19" s="35">
+        <v>5.9</v>
+      </c>
+      <c r="H19" s="35">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="32">
+        <v>17</v>
+      </c>
+      <c r="E20" s="32">
+        <v>17.2</v>
+      </c>
+      <c r="F20" s="32">
+        <v>17.5</v>
+      </c>
+      <c r="G20" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H20" s="32">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
+      <c r="B21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="32">
+        <v>10.4</v>
+      </c>
+      <c r="E21" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="F21" s="32">
+        <v>10.6</v>
+      </c>
+      <c r="G21" s="32">
+        <v>10.7</v>
+      </c>
+      <c r="H21" s="32">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="33">
+        <v>100</v>
+      </c>
+      <c r="E22" s="33">
+        <v>100</v>
+      </c>
+      <c r="F22" s="33">
+        <v>100</v>
+      </c>
+      <c r="G22" s="33">
+        <v>100</v>
+      </c>
+      <c r="H22" s="33">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" location="N3" display="https://www.censtatd.gov.hk/hkstat/sub/sp250.jsp?tableID=036&amp;ID=0&amp;productType=8 - N3" xr:uid="{8D2F1D8A-069B-423C-BE7E-9C9921954193}"/>
+    <hyperlink ref="B11" r:id="rId2" location="N1" display="https://www.censtatd.gov.hk/hkstat/sub/sp250.jsp?tableID=036&amp;ID=0&amp;productType=8 - N1" xr:uid="{3A57B898-98BF-4A2A-9FD9-CF728D4C9FF8}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{D20492F3-B55F-4D77-A9A8-50A21DC62970}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7159D2-D927-4200-B515-57C1BC614875}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>2490617</v>
+      </c>
+      <c r="C5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>349963.04518884892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>2577788.5949999997</v>
+      </c>
+      <c r="C6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>359373.84567126719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>2668011.1958249994</v>
+      </c>
+      <c r="C7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>368866.47253214428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>2761391.5876788739</v>
+      </c>
+      <c r="C8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>379036.08467446419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>2858040.2932476341</v>
+      </c>
+      <c r="C9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>389373.48173017183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>2958071.703511301</v>
+      </c>
+      <c r="C10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>400307.42316953797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>3061604.2131341961</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>411644.2639508163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>3153452.3395282221</v>
+      </c>
+      <c r="C12">
+        <v>0.03</v>
+      </c>
+      <c r="D12">
+        <v>421319.80433794571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>3248055.9097140688</v>
+      </c>
+      <c r="C13">
+        <v>0.03</v>
+      </c>
+      <c r="D13">
+        <v>431520.64696613111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="B14">
+        <v>3345497.5870054909</v>
+      </c>
+      <c r="C14">
+        <v>0.03</v>
+      </c>
+      <c r="D14">
+        <v>442181.04746368452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2026</v>
+      </c>
+      <c r="B15">
+        <v>3445862.5146156559</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>453373.13526947645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2027</v>
+      </c>
+      <c r="B16">
+        <v>3532009.0774810468</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>462759.13232637366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2028</v>
+      </c>
+      <c r="B17">
+        <v>3620309.3044180726</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>472292.28799776564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2029</v>
+      </c>
+      <c r="B18">
+        <v>3710817.0370285241</v>
+      </c>
+      <c r="C18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>482055.76027598744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2030</v>
+      </c>
+      <c r="B19">
+        <v>3803587.4629542367</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>492131.69741153048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2031</v>
+      </c>
+      <c r="B20">
+        <v>3898677.1495280922</v>
+      </c>
+      <c r="C20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>502465.12476035784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2032</v>
+      </c>
+      <c r="B21">
+        <v>3996144.0782662942</v>
+      </c>
+      <c r="C21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>513029.93571518548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2033</v>
+      </c>
+      <c r="B22">
+        <v>4096047.6802229513</v>
+      </c>
+      <c r="C22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>523804.6599942391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2034</v>
+      </c>
+      <c r="B23">
+        <v>4198448.8722285246</v>
+      </c>
+      <c r="C23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>534854.69154598576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2035</v>
+      </c>
+      <c r="B24">
+        <v>4303410.0940342378</v>
+      </c>
+      <c r="C24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>546249.74220106856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2036</v>
+      </c>
+      <c r="B25">
+        <v>4410995.3463850934</v>
+      </c>
+      <c r="C25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>558085.39517511753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2037</v>
+      </c>
+      <c r="B26">
+        <v>4521270.2300447207</v>
+      </c>
+      <c r="C26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>570406.51872788661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2038</v>
+      </c>
+      <c r="B27">
+        <v>4634301.9857958388</v>
+      </c>
+      <c r="C27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>583107.09972769627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2039</v>
+      </c>
+      <c r="B28">
+        <v>4750159.5354407346</v>
+      </c>
+      <c r="C28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>596446.49557900254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2040</v>
+      </c>
+      <c r="B29">
+        <v>4868913.5238267528</v>
+      </c>
+      <c r="C29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>610384.30496273609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2041</v>
+      </c>
+      <c r="B30">
+        <v>4990636.3619224215</v>
+      </c>
+      <c r="C30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>624977.94220911199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2042</v>
+      </c>
+      <c r="B31">
+        <v>5115402.2709704814</v>
+      </c>
+      <c r="C31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>640217.55309326306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2043</v>
+      </c>
+      <c r="B32">
+        <v>5243287.3277447429</v>
+      </c>
+      <c r="C32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D32">
+        <v>655976.69586827932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2044</v>
+      </c>
+      <c r="B33">
+        <v>5374369.5109383613</v>
+      </c>
+      <c r="C33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>672325.64531297912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2045</v>
+      </c>
+      <c r="B34">
+        <v>5508728.7487118198</v>
+      </c>
+      <c r="C34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>689340.75165640377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2046</v>
+      </c>
+      <c r="B35">
+        <v>5646446.9674296146</v>
+      </c>
+      <c r="C35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>707016.63691942627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2047</v>
+      </c>
+      <c r="B36">
+        <v>5787608.1416153545</v>
+      </c>
+      <c r="C36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>725482.36833325238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2048</v>
+      </c>
+      <c r="B37">
+        <v>5932298.3451557374</v>
+      </c>
+      <c r="C37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>744608.80446287652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2049</v>
+      </c>
+      <c r="B38">
+        <v>6080605.8037846303</v>
+      </c>
+      <c r="C38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>764567.55988741736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2050</v>
+      </c>
+      <c r="B39">
+        <v>6232620.9488792457</v>
+      </c>
+      <c r="C39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>785271.44714929583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2050</v>
+      </c>
+      <c r="B40">
+        <v>6232620.9488792457</v>
+      </c>
+      <c r="C40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <v>687434.06484081468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38964B69-4047-4436-8830-0FEBB335263F}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:AJ13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="51">
+        <v>2577788.5949999997</v>
+      </c>
+      <c r="D2" s="51">
+        <v>2668011.1958249994</v>
+      </c>
+      <c r="E2" s="51">
+        <v>2761391.5876788739</v>
+      </c>
+      <c r="F2" s="51">
+        <v>2858040.2932476341</v>
+      </c>
+      <c r="G2" s="51">
+        <v>2958071.703511301</v>
+      </c>
+      <c r="H2" s="51">
+        <v>3061604.2131341961</v>
+      </c>
+      <c r="I2" s="51">
+        <v>3153452.3395282221</v>
+      </c>
+      <c r="J2" s="51">
+        <v>3248055.9097140688</v>
+      </c>
+      <c r="K2" s="51">
+        <v>3345497.5870054909</v>
+      </c>
+      <c r="L2" s="51">
+        <v>3445862.5146156559</v>
+      </c>
+      <c r="M2" s="51">
+        <v>3532009.0774810468</v>
+      </c>
+      <c r="N2" s="51">
+        <v>3620309.3044180726</v>
+      </c>
+      <c r="O2" s="51">
+        <v>3710817.0370285241</v>
+      </c>
+      <c r="P2" s="51">
+        <v>3803587.4629542367</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>3898677.1495280922</v>
+      </c>
+      <c r="R2" s="51">
+        <v>3996144.0782662942</v>
+      </c>
+      <c r="S2" s="51">
+        <v>4096047.6802229513</v>
+      </c>
+      <c r="T2" s="51">
+        <v>4198448.8722285246</v>
+      </c>
+      <c r="U2" s="51">
+        <v>4303410.0940342378</v>
+      </c>
+      <c r="V2" s="51">
+        <v>4410995.3463850934</v>
+      </c>
+      <c r="W2" s="51">
+        <v>4521270.2300447207</v>
+      </c>
+      <c r="X2" s="51">
+        <v>4634301.9857958388</v>
+      </c>
+      <c r="Y2" s="51">
+        <v>4750159.5354407346</v>
+      </c>
+      <c r="Z2" s="51">
+        <v>4868913.5238267528</v>
+      </c>
+      <c r="AA2" s="51">
+        <v>4990636.3619224215</v>
+      </c>
+      <c r="AB2" s="51">
+        <v>5115402.2709704814</v>
+      </c>
+      <c r="AC2" s="51">
+        <v>5243287.3277447429</v>
+      </c>
+      <c r="AD2" s="51">
+        <v>5374369.5109383613</v>
+      </c>
+      <c r="AE2" s="51">
+        <v>5508728.7487118198</v>
+      </c>
+      <c r="AF2" s="51">
+        <v>5646446.9674296146</v>
+      </c>
+      <c r="AG2" s="51">
+        <v>5787608.1416153545</v>
+      </c>
+      <c r="AH2" s="51">
+        <v>5932298.3451557374</v>
+      </c>
+      <c r="AI2" s="51">
+        <v>6080605.8037846303</v>
+      </c>
+      <c r="AJ2" s="51">
+        <v>6232620.9488792457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="V3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="X3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AB3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AC3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AE3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AG3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AH3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AI3" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" s="51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="51">
+        <f>C4+($AJ$4-$C$4)/33</f>
+        <v>1.0696969696969698</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" ref="E4:AI4" si="0">D4+($AJ$4-$C$4)/33</f>
+        <v>1.0393939393939395</v>
+      </c>
+      <c r="F4" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0090909090909093</v>
+      </c>
+      <c r="G4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.97878787878787898</v>
+      </c>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.94848484848484871</v>
+      </c>
+      <c r="I4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.91818181818181843</v>
+      </c>
+      <c r="J4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.88787878787878816</v>
+      </c>
+      <c r="K4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.85757575757575788</v>
+      </c>
+      <c r="L4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.8272727272727276</v>
+      </c>
+      <c r="M4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.79696969696969733</v>
+      </c>
+      <c r="N4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="O4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.73636363636363678</v>
+      </c>
+      <c r="P4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.7060606060606065</v>
+      </c>
+      <c r="Q4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.67575757575757622</v>
+      </c>
+      <c r="R4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.64545454545454595</v>
+      </c>
+      <c r="S4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.61515151515151567</v>
+      </c>
+      <c r="T4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.58484848484848539</v>
+      </c>
+      <c r="U4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.55454545454545512</v>
+      </c>
+      <c r="V4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.52424242424242484</v>
+      </c>
+      <c r="W4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.49393939393939457</v>
+      </c>
+      <c r="X4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.46363636363636429</v>
+      </c>
+      <c r="Y4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333401</v>
+      </c>
+      <c r="Z4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.40303030303030374</v>
+      </c>
+      <c r="AA4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.37272727272727346</v>
+      </c>
+      <c r="AB4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.34242424242424319</v>
+      </c>
+      <c r="AC4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.31212121212121291</v>
+      </c>
+      <c r="AD4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.28181818181818263</v>
+      </c>
+      <c r="AE4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.25151515151515236</v>
+      </c>
+      <c r="AF4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.22121212121212205</v>
+      </c>
+      <c r="AG4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.19090909090909175</v>
+      </c>
+      <c r="AH4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.16060606060606145</v>
+      </c>
+      <c r="AI4" s="51">
+        <f t="shared" si="0"/>
+        <v>0.13030303030303114</v>
+      </c>
+      <c r="AJ4" s="51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="50">
+        <f>C2*C3/100</f>
+        <v>2577.788595</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" ref="D6:AJ6" si="1">D2*D3/100</f>
+        <v>2668.0111958249995</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="1"/>
+        <v>2761.3915876788737</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="1"/>
+        <v>2858.0402932476341</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="1"/>
+        <v>2958.0717035113012</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="1"/>
+        <v>3061.6042131341965</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="1"/>
+        <v>3153.4523395282222</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="1"/>
+        <v>3248.055909714069</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="1"/>
+        <v>3345.4975870054914</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="1"/>
+        <v>3445.862514615656</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="1"/>
+        <v>3532.0090774810469</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="1"/>
+        <v>3620.3093044180728</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="1"/>
+        <v>3710.8170370285243</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="1"/>
+        <v>3803.5874629542373</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="1"/>
+        <v>3898.6771495280927</v>
+      </c>
+      <c r="R6" s="50">
+        <f t="shared" si="1"/>
+        <v>3996.1440782662949</v>
+      </c>
+      <c r="S6" s="50">
+        <f t="shared" si="1"/>
+        <v>4096.0476802229514</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="1"/>
+        <v>4198.448872228525</v>
+      </c>
+      <c r="U6" s="50">
+        <f t="shared" si="1"/>
+        <v>4303.4100940342378</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="1"/>
+        <v>4410.9953463850943</v>
+      </c>
+      <c r="W6" s="50">
+        <f t="shared" si="1"/>
+        <v>4521.2702300447208</v>
+      </c>
+      <c r="X6" s="50">
+        <f t="shared" si="1"/>
+        <v>4634.3019857958388</v>
+      </c>
+      <c r="Y6" s="50">
+        <f t="shared" si="1"/>
+        <v>4750.1595354407355</v>
+      </c>
+      <c r="Z6" s="50">
+        <f t="shared" si="1"/>
+        <v>4868.9135238267527</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" si="1"/>
+        <v>4990.6363619224212</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="1"/>
+        <v>5115.4022709704823</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="1"/>
+        <v>5243.2873277447434</v>
+      </c>
+      <c r="AD6" s="50">
+        <f t="shared" si="1"/>
+        <v>5374.3695109383607</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="1"/>
+        <v>5508.7287487118201</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="1"/>
+        <v>5646.4469674296151</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="1"/>
+        <v>5787.6081416153547</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="1"/>
+        <v>5932.2983451557384</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="1"/>
+        <v>6080.6058037846306</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="1"/>
+        <v>6232.6209488792465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="50">
+        <f>C2*C4/100</f>
+        <v>28355.674545000002</v>
+      </c>
+      <c r="D7" s="50">
+        <f t="shared" ref="D7:AJ7" si="2">D2*D4/100</f>
+        <v>28539.634912915906</v>
+      </c>
+      <c r="E7" s="50">
+        <f t="shared" si="2"/>
+        <v>28701.736805268298</v>
+      </c>
+      <c r="F7" s="50">
+        <f t="shared" si="2"/>
+        <v>28840.224777317038</v>
+      </c>
+      <c r="G7" s="50">
+        <f t="shared" si="2"/>
+        <v>28953.247279822739</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="2"/>
+        <v>29038.852082151625</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="2"/>
+        <v>28954.426026577319</v>
+      </c>
+      <c r="J7" s="50">
+        <f t="shared" si="2"/>
+        <v>28838.799440794621</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" si="2"/>
+        <v>28690.176276441038</v>
+      </c>
+      <c r="L7" s="50">
+        <f t="shared" si="2"/>
+        <v>28506.68080272953</v>
+      </c>
+      <c r="M7" s="50">
+        <f t="shared" si="2"/>
+        <v>28149.042041742898</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="2"/>
+        <v>27755.704667205238</v>
+      </c>
+      <c r="O7" s="50">
+        <f t="shared" si="2"/>
+        <v>27325.107272664602</v>
+      </c>
+      <c r="P7" s="50">
+        <f t="shared" si="2"/>
+        <v>26855.632692979929</v>
+      </c>
+      <c r="Q7" s="50">
+        <f t="shared" si="2"/>
+        <v>26345.606192265608</v>
+      </c>
+      <c r="R7" s="50">
+        <f t="shared" si="2"/>
+        <v>25793.293596082465</v>
+      </c>
+      <c r="S7" s="50">
+        <f t="shared" si="2"/>
+        <v>25196.899366219994</v>
+      </c>
+      <c r="T7" s="50">
+        <f t="shared" si="2"/>
+        <v>24554.56461636685</v>
+      </c>
+      <c r="U7" s="50">
+        <f t="shared" si="2"/>
+        <v>23864.365066917162</v>
+      </c>
+      <c r="V7" s="50">
+        <f t="shared" si="2"/>
+        <v>23124.308937109759</v>
+      </c>
+      <c r="W7" s="50">
+        <f t="shared" si="2"/>
+        <v>22332.334772645165</v>
+      </c>
+      <c r="X7" s="50">
+        <f t="shared" si="2"/>
+        <v>21486.309206871647</v>
+      </c>
+      <c r="Y7" s="50">
+        <f t="shared" si="2"/>
+        <v>20584.024653576551</v>
+      </c>
+      <c r="Z7" s="50">
+        <f t="shared" si="2"/>
+        <v>19623.196929362402</v>
+      </c>
+      <c r="AA7" s="50">
+        <f t="shared" si="2"/>
+        <v>18601.462803529063</v>
+      </c>
+      <c r="AB7" s="50">
+        <f t="shared" si="2"/>
+        <v>17516.377473323202</v>
+      </c>
+      <c r="AC7" s="50">
+        <f t="shared" si="2"/>
+        <v>16365.411962354845</v>
+      </c>
+      <c r="AD7" s="50">
+        <f t="shared" si="2"/>
+        <v>15145.950439917246</v>
+      </c>
+      <c r="AE7" s="50">
+        <f t="shared" si="2"/>
+        <v>13855.287458881292</v>
+      </c>
+      <c r="AF7" s="50">
+        <f t="shared" si="2"/>
+        <v>12490.625109768589</v>
+      </c>
+      <c r="AG7" s="50">
+        <f t="shared" si="2"/>
+        <v>11049.070088538452</v>
+      </c>
+      <c r="AH7" s="50">
+        <f t="shared" si="2"/>
+        <v>9527.6306755532041</v>
+      </c>
+      <c r="AI7" s="50">
+        <f t="shared" si="2"/>
+        <v>7923.2136231133572</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f t="shared" si="2"/>
+        <v>6232.6209488792465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="50">
+        <f>C6/$B$15</f>
+        <v>332.48060091317137</v>
+      </c>
+      <c r="D9" s="50">
+        <f t="shared" ref="D9:AJ9" si="3">D6/$B$15</f>
+        <v>344.11742194513226</v>
+      </c>
+      <c r="E9" s="50">
+        <f t="shared" si="3"/>
+        <v>356.16153171321184</v>
+      </c>
+      <c r="F9" s="50">
+        <f t="shared" si="3"/>
+        <v>368.62718532317422</v>
+      </c>
+      <c r="G9" s="50">
+        <f t="shared" si="3"/>
+        <v>381.52913680948529</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="3"/>
+        <v>394.88265659781723</v>
+      </c>
+      <c r="I9" s="50">
+        <f t="shared" si="3"/>
+        <v>406.72913629575174</v>
+      </c>
+      <c r="J9" s="50">
+        <f t="shared" si="3"/>
+        <v>418.9310103846243</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="shared" si="3"/>
+        <v>431.49894069616306</v>
+      </c>
+      <c r="L9" s="50">
+        <f t="shared" si="3"/>
+        <v>444.44390891704796</v>
+      </c>
+      <c r="M9" s="50">
+        <f t="shared" si="3"/>
+        <v>455.55500663997407</v>
+      </c>
+      <c r="N9" s="50">
+        <f t="shared" si="3"/>
+        <v>466.94388180597338</v>
+      </c>
+      <c r="O9" s="50">
+        <f t="shared" si="3"/>
+        <v>478.61747885112271</v>
+      </c>
+      <c r="P9" s="50">
+        <f t="shared" si="3"/>
+        <v>490.58291582240076</v>
+      </c>
+      <c r="Q9" s="50">
+        <f t="shared" si="3"/>
+        <v>502.84748871796069</v>
+      </c>
+      <c r="R9" s="50">
+        <f t="shared" si="3"/>
+        <v>515.41867593590973</v>
+      </c>
+      <c r="S9" s="50">
+        <f t="shared" si="3"/>
+        <v>528.3041428343073</v>
+      </c>
+      <c r="T9" s="50">
+        <f t="shared" si="3"/>
+        <v>541.51174640516501</v>
+      </c>
+      <c r="U9" s="50">
+        <f t="shared" si="3"/>
+        <v>555.04954006529408</v>
+      </c>
+      <c r="V9" s="50">
+        <f t="shared" si="3"/>
+        <v>568.92577856692651</v>
+      </c>
+      <c r="W9" s="50">
+        <f t="shared" si="3"/>
+        <v>583.14892303109957</v>
+      </c>
+      <c r="X9" s="50">
+        <f t="shared" si="3"/>
+        <v>597.72764610687705</v>
+      </c>
+      <c r="Y9" s="50">
+        <f t="shared" si="3"/>
+        <v>612.6708372595491</v>
+      </c>
+      <c r="Z9" s="50">
+        <f t="shared" si="3"/>
+        <v>627.98760819103768</v>
+      </c>
+      <c r="AA9" s="50">
+        <f t="shared" si="3"/>
+        <v>643.68729839581351</v>
+      </c>
+      <c r="AB9" s="50">
+        <f t="shared" si="3"/>
+        <v>659.77948085570893</v>
+      </c>
+      <c r="AC9" s="50">
+        <f t="shared" si="3"/>
+        <v>676.27396787710154</v>
+      </c>
+      <c r="AD9" s="50">
+        <f t="shared" si="3"/>
+        <v>693.18081707402894</v>
+      </c>
+      <c r="AE9" s="50">
+        <f t="shared" si="3"/>
+        <v>710.5103375008797</v>
+      </c>
+      <c r="AF9" s="50">
+        <f t="shared" si="3"/>
+        <v>728.27309593840164</v>
+      </c>
+      <c r="AG9" s="50">
+        <f t="shared" si="3"/>
+        <v>746.47992333686159</v>
+      </c>
+      <c r="AH9" s="50">
+        <f t="shared" si="3"/>
+        <v>765.1419214202831</v>
+      </c>
+      <c r="AI9" s="50">
+        <f t="shared" si="3"/>
+        <v>784.27046945579002</v>
+      </c>
+      <c r="AJ9" s="50">
+        <f t="shared" si="3"/>
+        <v>803.87723119218469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="50">
+        <f>C7/$B$15</f>
+        <v>3657.286610044885</v>
+      </c>
+      <c r="D10" s="50">
+        <f t="shared" ref="D10:AJ10" si="4">D7/$B$15</f>
+        <v>3681.0136347464154</v>
+      </c>
+      <c r="E10" s="50">
+        <f t="shared" si="4"/>
+        <v>3701.9213750797476</v>
+      </c>
+      <c r="F10" s="50">
+        <f t="shared" si="4"/>
+        <v>3719.7834155338492</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="4"/>
+        <v>3734.3609451352654</v>
+      </c>
+      <c r="H10" s="50">
+        <f t="shared" si="4"/>
+        <v>3745.4021671247519</v>
+      </c>
+      <c r="I10" s="50">
+        <f t="shared" si="4"/>
+        <v>3734.5129787155392</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" si="4"/>
+        <v>3719.5995770513623</v>
+      </c>
+      <c r="K10" s="50">
+        <f t="shared" si="4"/>
+        <v>3700.43030960649</v>
+      </c>
+      <c r="L10" s="50">
+        <f t="shared" si="4"/>
+        <v>3676.76324649558</v>
+      </c>
+      <c r="M10" s="50">
+        <f t="shared" si="4"/>
+        <v>3630.6353559488857</v>
+      </c>
+      <c r="N10" s="50">
+        <f t="shared" si="4"/>
+        <v>3579.9030938457977</v>
+      </c>
+      <c r="O10" s="50">
+        <f t="shared" si="4"/>
+        <v>3524.3650715400872</v>
+      </c>
+      <c r="P10" s="50">
+        <f t="shared" si="4"/>
+        <v>3463.812708685437</v>
+      </c>
+      <c r="Q10" s="50">
+        <f t="shared" si="4"/>
+        <v>3398.0299995183418</v>
+      </c>
+      <c r="R10" s="50">
+        <f t="shared" si="4"/>
+        <v>3326.7932719499645</v>
+      </c>
+      <c r="S10" s="50">
+        <f t="shared" si="4"/>
+        <v>3249.8709392534688</v>
+      </c>
+      <c r="T10" s="50">
+        <f t="shared" si="4"/>
+        <v>3167.0232441271801</v>
+      </c>
+      <c r="U10" s="50">
+        <f t="shared" si="4"/>
+        <v>3078.0019949075431</v>
+      </c>
+      <c r="V10" s="50">
+        <f t="shared" si="4"/>
+        <v>2982.5502936993448</v>
+      </c>
+      <c r="W10" s="50">
+        <f t="shared" si="4"/>
+        <v>2880.4022561839197</v>
+      </c>
+      <c r="X10" s="50">
+        <f t="shared" si="4"/>
+        <v>2771.2827228591609</v>
+      </c>
+      <c r="Y10" s="50">
+        <f t="shared" si="4"/>
+        <v>2654.9069614580499</v>
+      </c>
+      <c r="Z10" s="50">
+        <f t="shared" si="4"/>
+        <v>2530.9803602850957</v>
+      </c>
+      <c r="AA10" s="50">
+        <f t="shared" si="4"/>
+        <v>2399.1981122025827</v>
+      </c>
+      <c r="AB10" s="50">
+        <f t="shared" si="4"/>
+        <v>2259.2448889907655</v>
+      </c>
+      <c r="AC10" s="50">
+        <f t="shared" si="4"/>
+        <v>2110.7945057982311</v>
+      </c>
+      <c r="AD10" s="50">
+        <f t="shared" si="4"/>
+        <v>1953.5095753904511</v>
+      </c>
+      <c r="AE10" s="50">
+        <f t="shared" si="4"/>
+        <v>1787.041151896158</v>
+      </c>
+      <c r="AF10" s="50">
+        <f t="shared" si="4"/>
+        <v>1611.0283637425307</v>
+      </c>
+      <c r="AG10" s="50">
+        <f t="shared" si="4"/>
+        <v>1425.0980354612873</v>
+      </c>
+      <c r="AH10" s="50">
+        <f t="shared" si="4"/>
+        <v>1228.8642980386428</v>
+      </c>
+      <c r="AI10" s="50">
+        <f t="shared" si="4"/>
+        <v>1021.9281874727026</v>
+      </c>
+      <c r="AJ10" s="50">
+        <f t="shared" si="4"/>
+        <v>803.87723119218469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="50">
+        <f>C9*$D$18</f>
+        <v>315.8565708675128</v>
+      </c>
+      <c r="D12" s="50">
+        <f t="shared" ref="D12:AJ12" si="5">D9*$D$18</f>
+        <v>326.91155084787562</v>
+      </c>
+      <c r="E12" s="50">
+        <f t="shared" si="5"/>
+        <v>338.35345512755123</v>
+      </c>
+      <c r="F12" s="50">
+        <f t="shared" si="5"/>
+        <v>350.19582605701549</v>
+      </c>
+      <c r="G12" s="50">
+        <f t="shared" si="5"/>
+        <v>362.452679969011</v>
+      </c>
+      <c r="H12" s="50">
+        <f t="shared" si="5"/>
+        <v>375.13852376792636</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="5"/>
+        <v>386.39267948096415</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="5"/>
+        <v>397.98445986539309</v>
+      </c>
+      <c r="K12" s="50">
+        <f t="shared" si="5"/>
+        <v>409.92399366135487</v>
+      </c>
+      <c r="L12" s="50">
+        <f t="shared" si="5"/>
+        <v>422.22171347119553</v>
+      </c>
+      <c r="M12" s="50">
+        <f t="shared" si="5"/>
+        <v>432.77725630797534</v>
+      </c>
+      <c r="N12" s="50">
+        <f t="shared" si="5"/>
+        <v>443.5966877156747</v>
+      </c>
+      <c r="O12" s="50">
+        <f t="shared" si="5"/>
+        <v>454.68660490856655</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="5"/>
+        <v>466.05377003128069</v>
+      </c>
+      <c r="Q12" s="50">
+        <f t="shared" si="5"/>
+        <v>477.70511428206265</v>
+      </c>
+      <c r="R12" s="50">
+        <f t="shared" si="5"/>
+        <v>489.6477421391142</v>
+      </c>
+      <c r="S12" s="50">
+        <f t="shared" si="5"/>
+        <v>501.88893569259193</v>
+      </c>
+      <c r="T12" s="50">
+        <f t="shared" si="5"/>
+        <v>514.43615908490676</v>
+      </c>
+      <c r="U12" s="50">
+        <f t="shared" si="5"/>
+        <v>527.29706306202934</v>
+      </c>
+      <c r="V12" s="50">
+        <f t="shared" si="5"/>
+        <v>540.47948963858016</v>
+      </c>
+      <c r="W12" s="50">
+        <f t="shared" si="5"/>
+        <v>553.99147687954462</v>
+      </c>
+      <c r="X12" s="50">
+        <f t="shared" si="5"/>
+        <v>567.84126380153316</v>
+      </c>
+      <c r="Y12" s="50">
+        <f t="shared" si="5"/>
+        <v>582.03729539657161</v>
+      </c>
+      <c r="Z12" s="50">
+        <f t="shared" si="5"/>
+        <v>596.58822778148578</v>
+      </c>
+      <c r="AA12" s="50">
+        <f t="shared" si="5"/>
+        <v>611.5029334760228</v>
+      </c>
+      <c r="AB12" s="50">
+        <f t="shared" si="5"/>
+        <v>626.79050681292347</v>
+      </c>
+      <c r="AC12" s="50">
+        <f t="shared" si="5"/>
+        <v>642.46026948324641</v>
+      </c>
+      <c r="AD12" s="50">
+        <f t="shared" si="5"/>
+        <v>658.52177622032741</v>
+      </c>
+      <c r="AE12" s="50">
+        <f t="shared" si="5"/>
+        <v>674.98482062583571</v>
+      </c>
+      <c r="AF12" s="50">
+        <f t="shared" si="5"/>
+        <v>691.85944114148151</v>
+      </c>
+      <c r="AG12" s="50">
+        <f t="shared" si="5"/>
+        <v>709.15592717001846</v>
+      </c>
+      <c r="AH12" s="50">
+        <f t="shared" si="5"/>
+        <v>726.88482534926891</v>
+      </c>
+      <c r="AI12" s="50">
+        <f t="shared" si="5"/>
+        <v>745.05694598300045</v>
+      </c>
+      <c r="AJ12" s="50">
+        <f t="shared" si="5"/>
+        <v>763.68336963257548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="50">
+        <f>C10*$D$18</f>
+        <v>3474.4222795426408</v>
+      </c>
+      <c r="D13" s="50">
+        <f t="shared" ref="D13:AJ13" si="6">D10*$D$18</f>
+        <v>3496.9629530090942</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" si="6"/>
+        <v>3516.8253063257598</v>
+      </c>
+      <c r="F13" s="50">
+        <f t="shared" si="6"/>
+        <v>3533.7942447571563</v>
+      </c>
+      <c r="G13" s="50">
+        <f t="shared" si="6"/>
+        <v>3547.642897878502</v>
+      </c>
+      <c r="H13" s="50">
+        <f t="shared" si="6"/>
+        <v>3558.1320587685141</v>
+      </c>
+      <c r="I13" s="50">
+        <f t="shared" si="6"/>
+        <v>3547.7873297797623</v>
+      </c>
+      <c r="J13" s="50">
+        <f t="shared" si="6"/>
+        <v>3533.6195981987939</v>
+      </c>
+      <c r="K13" s="50">
+        <f t="shared" si="6"/>
+        <v>3515.4087941261655</v>
+      </c>
+      <c r="L13" s="50">
+        <f t="shared" si="6"/>
+        <v>3492.9250841708008</v>
+      </c>
+      <c r="M13" s="50">
+        <f t="shared" si="6"/>
+        <v>3449.1035881514413</v>
+      </c>
+      <c r="N13" s="50">
+        <f t="shared" si="6"/>
+        <v>3400.9079391535079</v>
+      </c>
+      <c r="O13" s="50">
+        <f t="shared" si="6"/>
+        <v>3348.1468179630829</v>
+      </c>
+      <c r="P13" s="50">
+        <f t="shared" si="6"/>
+        <v>3290.6220732511651</v>
+      </c>
+      <c r="Q13" s="50">
+        <f t="shared" si="6"/>
+        <v>3228.1284995424244</v>
+      </c>
+      <c r="R13" s="50">
+        <f t="shared" si="6"/>
+        <v>3160.4536083524663</v>
+      </c>
+      <c r="S13" s="50">
+        <f t="shared" si="6"/>
+        <v>3087.3773922907953</v>
+      </c>
+      <c r="T13" s="50">
+        <f t="shared" si="6"/>
+        <v>3008.6720819208208</v>
+      </c>
+      <c r="U13" s="50">
+        <f t="shared" si="6"/>
+        <v>2924.1018951621659</v>
+      </c>
+      <c r="V13" s="50">
+        <f t="shared" si="6"/>
+        <v>2833.4227790143773</v>
+      </c>
+      <c r="W13" s="50">
+        <f t="shared" si="6"/>
+        <v>2736.3821433747235</v>
+      </c>
+      <c r="X13" s="50">
+        <f t="shared" si="6"/>
+        <v>2632.7185867162029</v>
+      </c>
+      <c r="Y13" s="50">
+        <f t="shared" si="6"/>
+        <v>2522.1616133851471</v>
+      </c>
+      <c r="Z13" s="50">
+        <f t="shared" si="6"/>
+        <v>2404.431342270841</v>
+      </c>
+      <c r="AA13" s="50">
+        <f t="shared" si="6"/>
+        <v>2279.2382065924535</v>
+      </c>
+      <c r="AB13" s="50">
+        <f t="shared" si="6"/>
+        <v>2146.282644541227</v>
+      </c>
+      <c r="AC13" s="50">
+        <f t="shared" si="6"/>
+        <v>2005.2547805083193</v>
+      </c>
+      <c r="AD13" s="50">
+        <f t="shared" si="6"/>
+        <v>1855.8340966209284</v>
+      </c>
+      <c r="AE13" s="50">
+        <f t="shared" si="6"/>
+        <v>1697.68909430135</v>
+      </c>
+      <c r="AF13" s="50">
+        <f t="shared" si="6"/>
+        <v>1530.4769455554042</v>
+      </c>
+      <c r="AG13" s="50">
+        <f t="shared" si="6"/>
+        <v>1353.8431336882229</v>
+      </c>
+      <c r="AH13" s="50">
+        <f t="shared" si="6"/>
+        <v>1167.4210831367106</v>
+      </c>
+      <c r="AI13" s="50">
+        <f t="shared" si="6"/>
+        <v>970.83177809906738</v>
+      </c>
+      <c r="AJ13" s="50">
+        <f t="shared" si="6"/>
+        <v>763.68336963257548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>7.7531999999999996</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{9DB72826-211B-4305-932E-99ED0190CBDA}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{00349301-B055-43C8-9195-BB99F487EA85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
         <v>2018</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2019</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2020</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2022</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2023</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2024</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2025</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2026</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2027</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2028</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2029</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2030</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2031</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2032</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2033</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2034</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2035</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2036</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2037</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2038</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2039</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2040</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2041</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2042</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2043</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2044</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2045</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2046</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2047</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2048</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2049</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26">
-        <f>'EIA 24'!D47*currency_conv</f>
-        <v>16025029410.000002</v>
-      </c>
-      <c r="C2" s="26">
-        <f>'EIA 24'!E47*currency_conv</f>
-        <v>16714551320.000002</v>
-      </c>
-      <c r="D2" s="26">
-        <f>'EIA 24'!F47*currency_conv</f>
-        <v>17329910460</v>
-      </c>
-      <c r="E2" s="26">
-        <f>'EIA 24'!G47*currency_conv</f>
-        <v>17696492460.000004</v>
-      </c>
-      <c r="F2" s="26">
-        <f>'EIA 24'!H47*currency_conv</f>
-        <v>18025416880.000004</v>
-      </c>
-      <c r="G2" s="26">
-        <f>'EIA 24'!I47*currency_conv</f>
-        <v>18280987450.000004</v>
-      </c>
-      <c r="H2" s="26">
-        <f>'EIA 24'!J47*currency_conv</f>
-        <v>18473561770.000004</v>
-      </c>
-      <c r="I2" s="26">
-        <f>'EIA 24'!K47*currency_conv</f>
-        <v>18616259110</v>
-      </c>
-      <c r="J2" s="26">
-        <f>'EIA 24'!L47*currency_conv</f>
-        <v>18822235180</v>
-      </c>
-      <c r="K2" s="26">
-        <f>'EIA 24'!M47*currency_conv</f>
-        <v>18961209990</v>
-      </c>
-      <c r="L2" s="26">
-        <f>'EIA 24'!N47*currency_conv</f>
-        <v>19180729050.000004</v>
-      </c>
-      <c r="M2" s="26">
-        <f>'EIA 24'!O47*currency_conv</f>
-        <v>19271381590</v>
-      </c>
-      <c r="N2" s="26">
-        <f>'EIA 24'!P47*currency_conv</f>
-        <v>19516894160.000004</v>
-      </c>
-      <c r="O2" s="26">
-        <f>'EIA 24'!Q47*currency_conv</f>
-        <v>19893182130</v>
-      </c>
-      <c r="P2" s="26">
-        <f>'EIA 24'!R47*currency_conv</f>
-        <v>20217939970.000004</v>
-      </c>
-      <c r="Q2" s="26">
-        <f>'EIA 24'!S47*currency_conv</f>
-        <v>20497718220</v>
-      </c>
-      <c r="R2" s="26">
-        <f>'EIA 24'!T47*currency_conv</f>
-        <v>20977161680.000004</v>
-      </c>
-      <c r="S2" s="26">
-        <f>'EIA 24'!U47*currency_conv</f>
-        <v>21404795740</v>
-      </c>
-      <c r="T2" s="26">
-        <f>'EIA 24'!V47*currency_conv</f>
-        <v>21735817360.000004</v>
-      </c>
-      <c r="U2" s="26">
-        <f>'EIA 24'!W47*currency_conv</f>
-        <v>22169511900</v>
-      </c>
-      <c r="V2" s="26">
-        <f>'EIA 24'!X47*currency_conv</f>
-        <v>22550568860.000004</v>
-      </c>
-      <c r="W2" s="26">
-        <f>'EIA 24'!Y47*currency_conv</f>
-        <v>22772046020</v>
-      </c>
-      <c r="X2" s="26">
-        <f>'EIA 24'!Z47*currency_conv</f>
-        <v>23144586850.000004</v>
-      </c>
-      <c r="Y2" s="26">
-        <f>'EIA 24'!AA47*currency_conv</f>
-        <v>23612572750</v>
-      </c>
-      <c r="Z2" s="26">
-        <f>'EIA 24'!AB47*currency_conv</f>
-        <v>23978108290.000004</v>
-      </c>
-      <c r="AA2" s="26">
-        <f>'EIA 24'!AC47*currency_conv</f>
-        <v>24389601400.000004</v>
-      </c>
-      <c r="AB2" s="26">
-        <f>'EIA 24'!AD47*currency_conv</f>
-        <v>24869798140.000004</v>
-      </c>
-      <c r="AC2" s="26">
-        <f>'EIA 24'!AE47*currency_conv</f>
-        <v>25315460630.000004</v>
-      </c>
-      <c r="AD2" s="26">
-        <f>'EIA 24'!AF47*currency_conv</f>
-        <v>25694734970</v>
-      </c>
-      <c r="AE2" s="26">
-        <f>'EIA 24'!AG47*currency_conv</f>
-        <v>26123140500.000004</v>
-      </c>
-      <c r="AF2" s="26">
-        <f>'EIA 24'!AH47*currency_conv</f>
-        <v>26526852570</v>
-      </c>
-      <c r="AG2" s="26">
-        <f>'EIA 24'!AI47*currency_conv</f>
-        <v>26865484030</v>
-      </c>
-      <c r="AH2" s="26">
-        <f>'EIA 24'!AJ47*currency_conv</f>
-        <v>27308360240.000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6395,282 +9278,225 @@
       <c r="AH3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26">
-        <f>'EIA 24'!D50*currency_conv</f>
-        <v>116752729000.00002</v>
-      </c>
-      <c r="C4" s="26">
-        <f>'EIA 24'!E50*currency_conv</f>
-        <v>118078669790.00002</v>
-      </c>
-      <c r="D4" s="26">
-        <f>'EIA 24'!F50*currency_conv</f>
-        <v>115500725210.00002</v>
-      </c>
-      <c r="E4" s="26">
-        <f>'EIA 24'!G50*currency_conv</f>
-        <v>111960088790.00002</v>
-      </c>
-      <c r="F4" s="26">
-        <f>'EIA 24'!H50*currency_conv</f>
-        <v>111421023860.00002</v>
-      </c>
-      <c r="G4" s="26">
-        <f>'EIA 24'!I50*currency_conv</f>
-        <v>111995723000</v>
-      </c>
-      <c r="H4" s="26">
-        <f>'EIA 24'!J50*currency_conv</f>
-        <v>112292218930.00002</v>
-      </c>
-      <c r="I4" s="26">
-        <f>'EIA 24'!K50*currency_conv</f>
-        <v>112617394070</v>
-      </c>
-      <c r="J4" s="26">
-        <f>'EIA 24'!L50*currency_conv</f>
-        <v>112957548140.00002</v>
-      </c>
-      <c r="K4" s="26">
-        <f>'EIA 24'!M50*currency_conv</f>
-        <v>112077471000.00002</v>
-      </c>
-      <c r="L4" s="26">
-        <f>'EIA 24'!N50*currency_conv</f>
-        <v>112409062930.00002</v>
-      </c>
-      <c r="M4" s="26">
-        <f>'EIA 24'!O50*currency_conv</f>
-        <v>112175057140.00002</v>
-      </c>
-      <c r="N4" s="26">
-        <f>'EIA 24'!P50*currency_conv</f>
-        <v>112263434860.00002</v>
-      </c>
-      <c r="O4" s="26">
-        <f>'EIA 24'!Q50*currency_conv</f>
-        <v>112866166930.00002</v>
-      </c>
-      <c r="P4" s="26">
-        <f>'EIA 24'!R50*currency_conv</f>
-        <v>113505496210.00002</v>
-      </c>
-      <c r="Q4" s="26">
-        <f>'EIA 24'!S50*currency_conv</f>
-        <v>114162792930.00002</v>
-      </c>
-      <c r="R4" s="26">
-        <f>'EIA 24'!T50*currency_conv</f>
-        <v>114958770210.00002</v>
-      </c>
-      <c r="S4" s="26">
-        <f>'EIA 24'!U50*currency_conv</f>
-        <v>115606008930</v>
-      </c>
-      <c r="T4" s="26">
-        <f>'EIA 24'!V50*currency_conv</f>
-        <v>116187769000</v>
-      </c>
-      <c r="U4" s="26">
-        <f>'EIA 24'!W50*currency_conv</f>
-        <v>117184690140</v>
-      </c>
-      <c r="V4" s="26">
-        <f>'EIA 24'!X50*currency_conv</f>
-        <v>117653672210.00002</v>
-      </c>
-      <c r="W4" s="26">
-        <f>'EIA 24'!Y50*currency_conv</f>
-        <v>117788704070.00002</v>
-      </c>
-      <c r="X4" s="26">
-        <f>'EIA 24'!Z50*currency_conv</f>
-        <v>117475301070.00002</v>
-      </c>
-      <c r="Y4" s="26">
-        <f>'EIA 24'!AA50*currency_conv</f>
-        <v>117117603280.00002</v>
-      </c>
-      <c r="Z4" s="26">
-        <f>'EIA 24'!AB50*currency_conv</f>
-        <v>116619084930.00002</v>
-      </c>
-      <c r="AA4" s="26">
-        <f>'EIA 24'!AC50*currency_conv</f>
-        <v>116419741790</v>
-      </c>
-      <c r="AB4" s="26">
-        <f>'EIA 24'!AD50*currency_conv</f>
-        <v>115895443930</v>
-      </c>
-      <c r="AC4" s="26">
-        <f>'EIA 24'!AE50*currency_conv</f>
-        <v>115841940720.00002</v>
-      </c>
-      <c r="AD4" s="26">
-        <f>'EIA 24'!AF50*currency_conv</f>
-        <v>115311757860.00002</v>
-      </c>
-      <c r="AE4" s="26">
-        <f>'EIA 24'!AG50*currency_conv</f>
-        <v>115116488210.00002</v>
-      </c>
-      <c r="AF4" s="26">
-        <f>'EIA 24'!AH50*currency_conv</f>
-        <v>114721548000</v>
-      </c>
-      <c r="AG4" s="26">
-        <f>'EIA 24'!AI50*currency_conv</f>
-        <v>114394446860.00002</v>
-      </c>
-      <c r="AH4" s="26">
-        <f>'EIA 24'!AJ50*currency_conv</f>
-        <v>113879348860.00002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26">
-        <f>SUM('EIA 24'!D34,'EIA 24'!D44)*currency_conv</f>
-        <v>1033188038860</v>
-      </c>
-      <c r="C5" s="26">
-        <f>SUM('EIA 24'!E34,'EIA 24'!E44)*currency_conv</f>
-        <v>1085237556490</v>
-      </c>
-      <c r="D5" s="26">
-        <f>SUM('EIA 24'!F34,'EIA 24'!F44)*currency_conv</f>
-        <v>1110907728540.0002</v>
-      </c>
-      <c r="E5" s="26">
-        <f>SUM('EIA 24'!G34,'EIA 24'!G44)*currency_conv</f>
-        <v>1145302572520.0002</v>
-      </c>
-      <c r="F5" s="26">
-        <f>SUM('EIA 24'!H34,'EIA 24'!H44)*currency_conv</f>
-        <v>1174815721260</v>
-      </c>
-      <c r="G5" s="26">
-        <f>SUM('EIA 24'!I34,'EIA 24'!I44)*currency_conv</f>
-        <v>1201931754350.0002</v>
-      </c>
-      <c r="H5" s="26">
-        <f>SUM('EIA 24'!J34,'EIA 24'!J44)*currency_conv</f>
-        <v>1232394867280</v>
-      </c>
-      <c r="I5" s="26">
-        <f>SUM('EIA 24'!K34,'EIA 24'!K44)*currency_conv</f>
-        <v>1262436110240</v>
-      </c>
-      <c r="J5" s="26">
-        <f>SUM('EIA 24'!L34,'EIA 24'!L44)*currency_conv</f>
-        <v>1290716561200.0002</v>
-      </c>
-      <c r="K5" s="26">
-        <f>SUM('EIA 24'!M34,'EIA 24'!M44)*currency_conv</f>
-        <v>1324690400840.0002</v>
-      </c>
-      <c r="L5" s="26">
-        <f>SUM('EIA 24'!N34,'EIA 24'!N44)*currency_conv</f>
-        <v>1354795481070</v>
-      </c>
-      <c r="M5" s="26">
-        <f>SUM('EIA 24'!O34,'EIA 24'!O44)*currency_conv</f>
-        <v>1384204220280</v>
-      </c>
-      <c r="N5" s="26">
-        <f>SUM('EIA 24'!P34,'EIA 24'!P44)*currency_conv</f>
-        <v>1407500556670</v>
-      </c>
-      <c r="O5" s="26">
-        <f>SUM('EIA 24'!Q34,'EIA 24'!Q44)*currency_conv</f>
-        <v>1433859886830.0002</v>
-      </c>
-      <c r="P5" s="26">
-        <f>SUM('EIA 24'!R34,'EIA 24'!R44)*currency_conv</f>
-        <v>1459864629690.0002</v>
-      </c>
-      <c r="Q5" s="26">
-        <f>SUM('EIA 24'!S34,'EIA 24'!S44)*currency_conv</f>
-        <v>1484904712980.0002</v>
-      </c>
-      <c r="R5" s="26">
-        <f>SUM('EIA 24'!T34,'EIA 24'!T44)*currency_conv</f>
-        <v>1505739410580</v>
-      </c>
-      <c r="S5" s="26">
-        <f>SUM('EIA 24'!U34,'EIA 24'!U44)*currency_conv</f>
-        <v>1531792642630.0002</v>
-      </c>
-      <c r="T5" s="26">
-        <f>SUM('EIA 24'!V34,'EIA 24'!V44)*currency_conv</f>
-        <v>1560729370600.0002</v>
-      </c>
-      <c r="U5" s="26">
-        <f>SUM('EIA 24'!W34,'EIA 24'!W44)*currency_conv</f>
-        <v>1585053780110.0002</v>
-      </c>
-      <c r="V5" s="26">
-        <f>SUM('EIA 24'!X34,'EIA 24'!X44)*currency_conv</f>
-        <v>1615948136210</v>
-      </c>
-      <c r="W5" s="26">
-        <f>SUM('EIA 24'!Y34,'EIA 24'!Y44)*currency_conv</f>
-        <v>1643236238140.0002</v>
-      </c>
-      <c r="X5" s="26">
-        <f>SUM('EIA 24'!Z34,'EIA 24'!Z44)*currency_conv</f>
-        <v>1667582558040.0002</v>
-      </c>
-      <c r="Y5" s="26">
-        <f>SUM('EIA 24'!AA34,'EIA 24'!AA44)*currency_conv</f>
-        <v>1693758995240</v>
-      </c>
-      <c r="Z5" s="26">
-        <f>SUM('EIA 24'!AB34,'EIA 24'!AB44)*currency_conv</f>
-        <v>1720720100890.0002</v>
-      </c>
-      <c r="AA5" s="26">
-        <f>SUM('EIA 24'!AC34,'EIA 24'!AC44)*currency_conv</f>
-        <v>1742554756290.0002</v>
-      </c>
-      <c r="AB5" s="26">
-        <f>SUM('EIA 24'!AD34,'EIA 24'!AD44)*currency_conv</f>
-        <v>1769869797610</v>
-      </c>
-      <c r="AC5" s="26">
-        <f>SUM('EIA 24'!AE34,'EIA 24'!AE44)*currency_conv</f>
-        <v>1799622511860.0002</v>
-      </c>
-      <c r="AD5" s="26">
-        <f>SUM('EIA 24'!AF34,'EIA 24'!AF44)*currency_conv</f>
-        <v>1828007618450.0002</v>
-      </c>
-      <c r="AE5" s="26">
-        <f>SUM('EIA 24'!AG34,'EIA 24'!AG44)*currency_conv</f>
-        <v>1857323881840.0002</v>
-      </c>
-      <c r="AF5" s="26">
-        <f>SUM('EIA 24'!AH34,'EIA 24'!AH44)*currency_conv</f>
-        <v>1891522443950.0005</v>
-      </c>
-      <c r="AG5" s="26">
-        <f>SUM('EIA 24'!AI34,'EIA 24'!AI44)*currency_conv</f>
-        <v>1921013143020</v>
-      </c>
-      <c r="AH5" s="26">
-        <f>SUM('EIA 24'!AJ34,'EIA 24'!AJ44)*currency_conv</f>
-        <v>1954220107240.0002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6773,8 +9599,11 @@
       <c r="AH6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6877,283 +9706,294 @@
       <c r="AH7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="26">
-        <f>'EIA 24'!D22*currency_conv</f>
-        <v>387997451870.00006</v>
+        <f>calcualtion!C12*1000000</f>
+        <v>315856570.86751282</v>
       </c>
       <c r="C8" s="26">
-        <f>'EIA 24'!E22*currency_conv</f>
-        <v>395394878680</v>
+        <f>calcualtion!D12*1000000</f>
+        <v>326911550.8478756</v>
       </c>
       <c r="D8" s="26">
-        <f>'EIA 24'!F22*currency_conv</f>
-        <v>401964367310.00006</v>
+        <f>calcualtion!E12*1000000</f>
+        <v>338353455.12755126</v>
       </c>
       <c r="E8" s="26">
-        <f>'EIA 24'!G22*currency_conv</f>
-        <v>408483275970</v>
+        <f>calcualtion!F12*1000000</f>
+        <v>350195826.05701548</v>
       </c>
       <c r="F8" s="26">
-        <f>'EIA 24'!H22*currency_conv</f>
-        <v>415395924300</v>
+        <f>calcualtion!G12*1000000</f>
+        <v>362452679.96901101</v>
       </c>
       <c r="G8" s="26">
-        <f>'EIA 24'!I22*currency_conv</f>
-        <v>422225369430</v>
+        <f>calcualtion!H12*1000000</f>
+        <v>375138523.76792634</v>
       </c>
       <c r="H8" s="26">
-        <f>'EIA 24'!J22*currency_conv</f>
-        <v>427978807580</v>
+        <f>calcualtion!I12*1000000</f>
+        <v>386392679.48096412</v>
       </c>
       <c r="I8" s="26">
-        <f>'EIA 24'!K22*currency_conv</f>
-        <v>433153815500</v>
+        <f>calcualtion!J12*1000000</f>
+        <v>397984459.8653931</v>
       </c>
       <c r="J8" s="26">
-        <f>'EIA 24'!L22*currency_conv</f>
-        <v>438594952750</v>
+        <f>calcualtion!K12*1000000</f>
+        <v>409923993.6613549</v>
       </c>
       <c r="K8" s="26">
-        <f>'EIA 24'!M22*currency_conv</f>
-        <v>443063430040.00006</v>
+        <f>calcualtion!L12*1000000</f>
+        <v>422221713.47119552</v>
       </c>
       <c r="L8" s="26">
-        <f>'EIA 24'!N22*currency_conv</f>
-        <v>447975282160.00006</v>
+        <f>calcualtion!M12*1000000</f>
+        <v>432777256.30797535</v>
       </c>
       <c r="M8" s="26">
-        <f>'EIA 24'!O22*currency_conv</f>
-        <v>452329144260.00006</v>
+        <f>calcualtion!N12*1000000</f>
+        <v>443596687.7156747</v>
       </c>
       <c r="N8" s="26">
-        <f>'EIA 24'!P22*currency_conv</f>
-        <v>456616654590</v>
+        <f>calcualtion!O12*1000000</f>
+        <v>454686604.90856653</v>
       </c>
       <c r="O8" s="26">
-        <f>'EIA 24'!Q22*currency_conv</f>
-        <v>461841231330.00006</v>
+        <f>calcualtion!P12*1000000</f>
+        <v>466053770.0312807</v>
       </c>
       <c r="P8" s="26">
-        <f>'EIA 24'!R22*currency_conv</f>
-        <v>467085825630.00006</v>
+        <f>calcualtion!Q12*1000000</f>
+        <v>477705114.28206265</v>
       </c>
       <c r="Q8" s="26">
-        <f>'EIA 24'!S22*currency_conv</f>
-        <v>472343741430.00006</v>
+        <f>calcualtion!R12*1000000</f>
+        <v>489647742.1391142</v>
       </c>
       <c r="R8" s="26">
-        <f>'EIA 24'!T22*currency_conv</f>
-        <v>477364330160.00006</v>
+        <f>calcualtion!S12*1000000</f>
+        <v>501888935.69259191</v>
       </c>
       <c r="S8" s="26">
-        <f>'EIA 24'!U22*currency_conv</f>
-        <v>482444936260.00006</v>
+        <f>calcualtion!T12*1000000</f>
+        <v>514436159.08490676</v>
       </c>
       <c r="T8" s="26">
-        <f>'EIA 24'!V22*currency_conv</f>
-        <v>487457883050</v>
+        <f>calcualtion!U12*1000000</f>
+        <v>527297063.06202936</v>
       </c>
       <c r="U8" s="26">
-        <f>'EIA 24'!W22*currency_conv</f>
-        <v>492563012480.00006</v>
+        <f>calcualtion!V12*1000000</f>
+        <v>540479489.6385802</v>
       </c>
       <c r="V8" s="26">
-        <f>'EIA 24'!X22*currency_conv</f>
-        <v>497632548360.00006</v>
+        <f>calcualtion!W12*1000000</f>
+        <v>553991476.87954462</v>
       </c>
       <c r="W8" s="26">
-        <f>'EIA 24'!Y22*currency_conv</f>
-        <v>502351905340</v>
+        <f>calcualtion!X12*1000000</f>
+        <v>567841263.8015331</v>
       </c>
       <c r="X8" s="26">
-        <f>'EIA 24'!Z22*currency_conv</f>
-        <v>507034037020.00006</v>
+        <f>calcualtion!Y12*1000000</f>
+        <v>582037295.39657164</v>
       </c>
       <c r="Y8" s="26">
-        <f>'EIA 24'!AA22*currency_conv</f>
-        <v>511867258050.00006</v>
+        <f>calcualtion!Z12*1000000</f>
+        <v>596588227.7814858</v>
       </c>
       <c r="Z8" s="26">
-        <f>'EIA 24'!AB22*currency_conv</f>
-        <v>516943848440.00006</v>
+        <f>calcualtion!AA12*1000000</f>
+        <v>611502933.47602284</v>
       </c>
       <c r="AA8" s="26">
-        <f>'EIA 24'!AC22*currency_conv</f>
-        <v>522210907390.00006</v>
+        <f>calcualtion!AB12*1000000</f>
+        <v>626790506.81292343</v>
       </c>
       <c r="AB8" s="26">
-        <f>'EIA 24'!AD22*currency_conv</f>
-        <v>527734397190.00006</v>
+        <f>calcualtion!AC12*1000000</f>
+        <v>642460269.48324645</v>
       </c>
       <c r="AC8" s="26">
-        <f>'EIA 24'!AE22*currency_conv</f>
-        <v>533556276820.00006</v>
+        <f>calcualtion!AD12*1000000</f>
+        <v>658521776.22032738</v>
       </c>
       <c r="AD8" s="26">
-        <f>'EIA 24'!AF22*currency_conv</f>
-        <v>539570782130.00006</v>
+        <f>calcualtion!AE12*1000000</f>
+        <v>674984820.62583566</v>
       </c>
       <c r="AE8" s="26">
-        <f>'EIA 24'!AG22*currency_conv</f>
-        <v>545631916970.00006</v>
+        <f>calcualtion!AF12*1000000</f>
+        <v>691859441.14148152</v>
       </c>
       <c r="AF8" s="26">
-        <f>'EIA 24'!AH22*currency_conv</f>
-        <v>551965482370.00012</v>
+        <f>calcualtion!AG12*1000000</f>
+        <v>709155927.17001843</v>
       </c>
       <c r="AG8" s="26">
-        <f>'EIA 24'!AI22*currency_conv</f>
-        <v>558206277700.00012</v>
+        <f>calcualtion!AH12*1000000</f>
+        <v>726884825.34926891</v>
       </c>
       <c r="AH8" s="26">
-        <f>'EIA 24'!AJ22*currency_conv</f>
-        <v>564062085960.00012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+        <f>calcualtion!AI12*1000000</f>
+        <v>745056945.9830004</v>
+      </c>
+      <c r="AI8" s="26">
+        <f>calcualtion!AJ12*1000000</f>
+        <v>763683369.63257551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="26">
-        <f>SUM('EIA 24'!D27:D33,'EIA 24'!D43,'EIA 24'!D46,'EIA 24'!D48,'EIA 24'!D51:D58)*currency_conv</f>
-        <v>4241998452450</v>
+        <f>calcualtion!C13*1000000</f>
+        <v>3474422279.5426407</v>
       </c>
       <c r="C9" s="26">
-        <f>SUM('EIA 24'!E27:E33,'EIA 24'!E43,'EIA 24'!E46,'EIA 24'!E48,'EIA 24'!E51:E58)*currency_conv</f>
-        <v>4365200957410.0005</v>
+        <f>calcualtion!D13*1000000</f>
+        <v>3496962953.0090942</v>
       </c>
       <c r="D9" s="26">
-        <f>SUM('EIA 24'!F27:F33,'EIA 24'!F43,'EIA 24'!F46,'EIA 24'!F48,'EIA 24'!F51:F58)*currency_conv</f>
-        <v>4442748873570.001</v>
+        <f>calcualtion!E13*1000000</f>
+        <v>3516825306.3257599</v>
       </c>
       <c r="E9" s="26">
-        <f>SUM('EIA 24'!G27:G33,'EIA 24'!G43,'EIA 24'!G46,'EIA 24'!G48,'EIA 24'!G51:G58)*currency_conv</f>
-        <v>4512410360080</v>
+        <f>calcualtion!F13*1000000</f>
+        <v>3533794244.7571564</v>
       </c>
       <c r="F9" s="26">
-        <f>SUM('EIA 24'!H27:H33,'EIA 24'!H43,'EIA 24'!H46,'EIA 24'!H48,'EIA 24'!H51:H58)*currency_conv</f>
-        <v>4581328999090</v>
+        <f>calcualtion!G13*1000000</f>
+        <v>3547642897.8785019</v>
       </c>
       <c r="G9" s="26">
-        <f>SUM('EIA 24'!I27:I33,'EIA 24'!I43,'EIA 24'!I46,'EIA 24'!I48,'EIA 24'!I51:I58)*currency_conv</f>
-        <v>4664855165750</v>
+        <f>calcualtion!H13*1000000</f>
+        <v>3558132058.7685142</v>
       </c>
       <c r="H9" s="26">
-        <f>SUM('EIA 24'!J27:J33,'EIA 24'!J43,'EIA 24'!J46,'EIA 24'!J48,'EIA 24'!J51:J58)*currency_conv</f>
-        <v>4751997233700.001</v>
+        <f>calcualtion!I13*1000000</f>
+        <v>3547787329.7797623</v>
       </c>
       <c r="I9" s="26">
-        <f>SUM('EIA 24'!K27:K33,'EIA 24'!K43,'EIA 24'!K46,'EIA 24'!K48,'EIA 24'!K51:K58)*currency_conv</f>
-        <v>4858974064990.002</v>
+        <f>calcualtion!J13*1000000</f>
+        <v>3533619598.1987939</v>
       </c>
       <c r="J9" s="26">
-        <f>SUM('EIA 24'!L27:L33,'EIA 24'!L43,'EIA 24'!L46,'EIA 24'!L48,'EIA 24'!L51:L58)*currency_conv</f>
-        <v>4969830334290.001</v>
+        <f>calcualtion!K13*1000000</f>
+        <v>3515408794.1261654</v>
       </c>
       <c r="K9" s="26">
-        <f>SUM('EIA 24'!M27:M33,'EIA 24'!M43,'EIA 24'!M46,'EIA 24'!M48,'EIA 24'!M51:M58)*currency_conv</f>
-        <v>5072157326500</v>
+        <f>calcualtion!L13*1000000</f>
+        <v>3492925084.1708007</v>
       </c>
       <c r="L9" s="26">
-        <f>SUM('EIA 24'!N27:N33,'EIA 24'!N43,'EIA 24'!N46,'EIA 24'!N48,'EIA 24'!N51:N58)*currency_conv</f>
-        <v>5192726764760</v>
+        <f>calcualtion!M13*1000000</f>
+        <v>3449103588.1514411</v>
       </c>
       <c r="M9" s="26">
-        <f>SUM('EIA 24'!O27:O33,'EIA 24'!O43,'EIA 24'!O46,'EIA 24'!O48,'EIA 24'!O51:O58)*currency_conv</f>
-        <v>5297752474590.001</v>
+        <f>calcualtion!N13*1000000</f>
+        <v>3400907939.1535077</v>
       </c>
       <c r="N9" s="26">
-        <f>SUM('EIA 24'!P27:P33,'EIA 24'!P43,'EIA 24'!P46,'EIA 24'!P48,'EIA 24'!P51:P58)*currency_conv</f>
-        <v>5403040407180.001</v>
+        <f>calcualtion!O13*1000000</f>
+        <v>3348146817.9630828</v>
       </c>
       <c r="O9" s="26">
-        <f>SUM('EIA 24'!Q27:Q33,'EIA 24'!Q43,'EIA 24'!Q46,'EIA 24'!Q48,'EIA 24'!Q51:Q58)*currency_conv</f>
-        <v>5515625732280.001</v>
+        <f>calcualtion!P13*1000000</f>
+        <v>3290622073.2511649</v>
       </c>
       <c r="P9" s="26">
-        <f>SUM('EIA 24'!R27:R33,'EIA 24'!R43,'EIA 24'!R46,'EIA 24'!R48,'EIA 24'!R51:R58)*currency_conv</f>
-        <v>5632820402310</v>
+        <f>calcualtion!Q13*1000000</f>
+        <v>3228128499.5424242</v>
       </c>
       <c r="Q9" s="26">
-        <f>SUM('EIA 24'!S27:S33,'EIA 24'!S43,'EIA 24'!S46,'EIA 24'!S48,'EIA 24'!S51:S58)*currency_conv</f>
-        <v>5752875511900</v>
+        <f>calcualtion!R13*1000000</f>
+        <v>3160453608.3524661</v>
       </c>
       <c r="R9" s="26">
-        <f>SUM('EIA 24'!T27:T33,'EIA 24'!T43,'EIA 24'!T46,'EIA 24'!T48,'EIA 24'!T51:T58)*currency_conv</f>
-        <v>5878187919900.001</v>
+        <f>calcualtion!S13*1000000</f>
+        <v>3087377392.2907953</v>
       </c>
       <c r="S9" s="26">
-        <f>SUM('EIA 24'!U27:U33,'EIA 24'!U43,'EIA 24'!U46,'EIA 24'!U48,'EIA 24'!U51:U58)*currency_conv</f>
-        <v>6010456920060.002</v>
+        <f>calcualtion!T13*1000000</f>
+        <v>3008672081.9208207</v>
       </c>
       <c r="T9" s="26">
-        <f>SUM('EIA 24'!V27:V33,'EIA 24'!V43,'EIA 24'!V46,'EIA 24'!V48,'EIA 24'!V51:V58)*currency_conv</f>
-        <v>6142272704600.002</v>
+        <f>calcualtion!U13*1000000</f>
+        <v>2924101895.1621656</v>
       </c>
       <c r="U9" s="26">
-        <f>SUM('EIA 24'!W27:W33,'EIA 24'!W43,'EIA 24'!W46,'EIA 24'!W48,'EIA 24'!W51:W58)*currency_conv</f>
-        <v>6281178262060.002</v>
+        <f>calcualtion!V13*1000000</f>
+        <v>2833422779.0143771</v>
       </c>
       <c r="V9" s="26">
-        <f>SUM('EIA 24'!X27:X33,'EIA 24'!X43,'EIA 24'!X46,'EIA 24'!X48,'EIA 24'!X51:X58)*currency_conv</f>
-        <v>6415104265290.001</v>
+        <f>calcualtion!W13*1000000</f>
+        <v>2736382143.3747234</v>
       </c>
       <c r="W9" s="26">
-        <f>SUM('EIA 24'!Y27:Y33,'EIA 24'!Y43,'EIA 24'!Y46,'EIA 24'!Y48,'EIA 24'!Y51:Y58)*currency_conv</f>
-        <v>6546464162420.001</v>
+        <f>calcualtion!X13*1000000</f>
+        <v>2632718586.7162027</v>
       </c>
       <c r="X9" s="26">
-        <f>SUM('EIA 24'!Z27:Z33,'EIA 24'!Z43,'EIA 24'!Z46,'EIA 24'!Z48,'EIA 24'!Z51:Z58)*currency_conv</f>
-        <v>6672169382400</v>
+        <f>calcualtion!Y13*1000000</f>
+        <v>2522161613.3851471</v>
       </c>
       <c r="Y9" s="26">
-        <f>SUM('EIA 24'!AA27:AA33,'EIA 24'!AA43,'EIA 24'!AA46,'EIA 24'!AA48,'EIA 24'!AA51:AA58)*currency_conv</f>
-        <v>6794691417650.001</v>
+        <f>calcualtion!Z13*1000000</f>
+        <v>2404431342.2708411</v>
       </c>
       <c r="Z9" s="26">
-        <f>SUM('EIA 24'!AB27:AB33,'EIA 24'!AB43,'EIA 24'!AB46,'EIA 24'!AB48,'EIA 24'!AB51:AB58)*currency_conv</f>
-        <v>6919755997600.002</v>
+        <f>calcualtion!AA13*1000000</f>
+        <v>2279238206.5924535</v>
       </c>
       <c r="AA9" s="26">
-        <f>SUM('EIA 24'!AC27:AC33,'EIA 24'!AC43,'EIA 24'!AC46,'EIA 24'!AC48,'EIA 24'!AC51:AC58)*currency_conv</f>
-        <v>7057546691030.001</v>
+        <f>calcualtion!AB13*1000000</f>
+        <v>2146282644.5412271</v>
       </c>
       <c r="AB9" s="26">
-        <f>SUM('EIA 24'!AD27:AD33,'EIA 24'!AD43,'EIA 24'!AD46,'EIA 24'!AD48,'EIA 24'!AD51:AD58)*currency_conv</f>
-        <v>7197626462210</v>
+        <f>calcualtion!AC13*1000000</f>
+        <v>2005254780.5083194</v>
       </c>
       <c r="AC9" s="26">
-        <f>SUM('EIA 24'!AE27:AE33,'EIA 24'!AE43,'EIA 24'!AE46,'EIA 24'!AE48,'EIA 24'!AE51:AE58)*currency_conv</f>
-        <v>7352322263260.001</v>
+        <f>calcualtion!AD13*1000000</f>
+        <v>1855834096.6209285</v>
       </c>
       <c r="AD9" s="26">
-        <f>SUM('EIA 24'!AF27:AF33,'EIA 24'!AF43,'EIA 24'!AF46,'EIA 24'!AF48,'EIA 24'!AF51:AF58)*currency_conv</f>
-        <v>7502381056670.001</v>
+        <f>calcualtion!AE13*1000000</f>
+        <v>1697689094.3013499</v>
       </c>
       <c r="AE9" s="26">
-        <f>SUM('EIA 24'!AG27:AG33,'EIA 24'!AG43,'EIA 24'!AG46,'EIA 24'!AG48,'EIA 24'!AG51:AG58)*currency_conv</f>
-        <v>7662554349290.001</v>
+        <f>calcualtion!AF13*1000000</f>
+        <v>1530476945.5554042</v>
       </c>
       <c r="AF9" s="26">
-        <f>SUM('EIA 24'!AH27:AH33,'EIA 24'!AH43,'EIA 24'!AH46,'EIA 24'!AH48,'EIA 24'!AH51:AH58)*currency_conv</f>
-        <v>7824928985010.001</v>
+        <f>calcualtion!AG13*1000000</f>
+        <v>1353843133.6882229</v>
       </c>
       <c r="AG9" s="26">
-        <f>SUM('EIA 24'!AI27:AI33,'EIA 24'!AI43,'EIA 24'!AI46,'EIA 24'!AI48,'EIA 24'!AI51:AI58)*currency_conv</f>
-        <v>7992016908670</v>
+        <f>calcualtion!AH13*1000000</f>
+        <v>1167421083.1367106</v>
       </c>
       <c r="AH9" s="26">
-        <f>SUM('EIA 24'!AJ27:AJ33,'EIA 24'!AJ43,'EIA 24'!AJ46,'EIA 24'!AJ48,'EIA 24'!AJ51:AJ58)*currency_conv</f>
-        <v>8157743515200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B11" s="18"/>
+        <f>calcualtion!AI13*1000000</f>
+        <v>970831778.09906733</v>
+      </c>
+      <c r="AI9" s="26">
+        <f>calcualtion!AJ13*1000000</f>
+        <v>763683369.63257551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7161,6 +10001,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7394,15 +10243,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7413,13 +10253,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99777C7-21A0-4BE7-9AE7-98D3919F4CA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5044EA7D-8449-448D-BA29-753265A84BBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5044EA7D-8449-448D-BA29-753265A84BBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99777C7-21A0-4BE7-9AE7-98D3919F4CA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE1914CE-156C-45F9-8A48-EE3F4E116261}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE1914CE-156C-45F9-8A48-EE3F4E116261}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>